--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5409631940218237</v>
+        <v>0.5156438605213324</v>
       </c>
       <c r="D2">
-        <v>0.5885568642752528</v>
+        <v>0.6094401512769929</v>
       </c>
       <c r="E2">
         <v>3.480199351524292</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4910800052799505</v>
+        <v>-0.510556004498761</v>
       </c>
       <c r="D3">
-        <v>0.6233912489882778</v>
+        <v>0.6129610878900507</v>
       </c>
       <c r="E3">
         <v>3.480199351524292</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7104110299064651</v>
+        <v>0.6803561824373288</v>
       </c>
       <c r="D4">
-        <v>0.4774821616142715</v>
+        <v>0.5008859593471295</v>
       </c>
       <c r="E4">
         <v>3.480199351524292</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.739641396670252</v>
+        <v>-1.634238703352198</v>
       </c>
       <c r="D5">
-        <v>0.08198306372927022</v>
+        <v>0.111435741756297</v>
       </c>
       <c r="E5">
         <v>3.480199351524292</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.005788121380564</v>
+        <v>-0.9148802137475198</v>
       </c>
       <c r="D6">
-        <v>0.3145657968766076</v>
+        <v>0.3666976625278076</v>
       </c>
       <c r="E6">
         <v>3.341602125547149</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.2318467183268009</v>
+        <v>0.2163594693616468</v>
       </c>
       <c r="D7">
-        <v>0.8166664839109341</v>
+        <v>0.8300004695558383</v>
       </c>
       <c r="E7">
         <v>3.341602125547149</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.34613971443983</v>
+        <v>-2.079964738118147</v>
       </c>
       <c r="D8">
-        <v>0.01900754132722104</v>
+        <v>0.04513754033197004</v>
       </c>
       <c r="E8">
         <v>3.341602125547149</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.185534119210849</v>
+        <v>0.7896262959206657</v>
       </c>
       <c r="D9">
-        <v>0.2358622353927371</v>
+        <v>0.4352185543292824</v>
       </c>
       <c r="E9">
         <v>3.605564996391168</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.504202927776617</v>
+        <v>-1.518332588049684</v>
       </c>
       <c r="D10">
-        <v>0.1325917955495421</v>
+        <v>0.138175341575141</v>
       </c>
       <c r="E10">
         <v>3.605564996391168</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.4015768215245</v>
+        <v>-1.806088412546325</v>
       </c>
       <c r="D11">
-        <v>0.01636057396141211</v>
+        <v>0.07976400393105232</v>
       </c>
       <c r="E11">
         <v>3.283656647113081</v>
@@ -687,7 +687,7 @@
         <v>4.015309777800359</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
